--- a/kicad/bebl_v2_BoM_seeed.xlsx
+++ b/kicad/bebl_v2_BoM_seeed.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="276" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="290" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Seeed BOM Format" sheetId="1" state="visible" r:id="rId2"/>
@@ -544,7 +544,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="221">
   <si>
     <t>Electronic Engineering BOM List</t>
   </si>
@@ -1192,10 +1192,16 @@
     <t>Surface Mount, Right Angle, Horizontal</t>
   </si>
   <si>
-    <t>10118193-0001LF</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/10118193-0001LF/609-4616-1-ND/2785380</t>
+    <t>SunTech</t>
+  </si>
+  <si>
+    <t>ST-USB-001G</t>
+  </si>
+  <si>
+    <t>seeed Studio</t>
+  </si>
+  <si>
+    <t>http://www.seeedstudio.com/depot/index.php?main_page=opl_info&amp;opl_id=331</t>
   </si>
   <si>
     <t>13</t>
@@ -3952,8 +3958,8 @@
   </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.8"/>
@@ -4642,233 +4648,235 @@
         <v>119</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J25" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="K25" s="31"/>
+        <v>122</v>
+      </c>
+      <c r="K25" s="34" t="n">
+        <v>320010000</v>
+      </c>
       <c r="L25" s="38"/>
       <c r="M25" s="38"/>
       <c r="N25" s="36" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AMJ25" s="0"/>
     </row>
     <row r="26" s="37" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="30" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C26" s="32" t="n">
         <v>3</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G26" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="I26" s="31" t="s">
         <v>127</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="I26" s="31" t="s">
-        <v>125</v>
       </c>
       <c r="J26" s="31" t="s">
         <v>26</v>
       </c>
       <c r="K26" s="31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L26" s="38"/>
       <c r="M26" s="38"/>
       <c r="N26" s="36" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AMJ26" s="0"/>
     </row>
     <row r="27" s="37" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="30" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C27" s="32" t="n">
         <v>4</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G27" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J27" s="31" t="s">
         <v>26</v>
       </c>
       <c r="K27" s="31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L27" s="38"/>
       <c r="M27" s="38"/>
       <c r="N27" s="36" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AMJ27" s="0"/>
     </row>
     <row r="28" s="37" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="30" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C28" s="32" t="n">
         <v>1</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G28" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J28" s="31" t="s">
         <v>26</v>
       </c>
       <c r="K28" s="31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L28" s="38"/>
       <c r="M28" s="38"/>
       <c r="N28" s="36" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AMJ28" s="0"/>
     </row>
     <row r="29" s="37" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C29" s="32" t="n">
         <v>1</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G29" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J29" s="31" t="s">
         <v>26</v>
       </c>
       <c r="K29" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L29" s="38"/>
       <c r="M29" s="38"/>
       <c r="N29" s="36" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AMJ29" s="0"/>
     </row>
     <row r="30" s="37" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C30" s="32" t="n">
         <v>6</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G30" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H30" s="31" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J30" s="31" t="s">
         <v>26</v>
       </c>
       <c r="K30" s="31" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L30" s="38"/>
       <c r="M30" s="38"/>
       <c r="N30" s="36" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AMJ30" s="0"/>
     </row>
     <row r="31" s="37" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C31" s="32" t="n">
         <v>2</v>
@@ -4877,203 +4885,203 @@
         <v>81</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J31" s="31" t="s">
         <v>26</v>
       </c>
       <c r="K31" s="31" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L31" s="38"/>
       <c r="M31" s="38"/>
       <c r="N31" s="36" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AMJ31" s="0"/>
     </row>
     <row r="32" s="37" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C32" s="32" t="n">
         <v>1</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G32" s="31" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J32" s="31" t="s">
         <v>26</v>
       </c>
       <c r="K32" s="31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L32" s="38"/>
       <c r="M32" s="38"/>
       <c r="N32" s="36" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AMJ32" s="0"/>
     </row>
     <row r="33" s="37" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="30" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C33" s="32" t="n">
         <v>1</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F33" s="34" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H33" s="31" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J33" s="31" t="s">
         <v>26</v>
       </c>
       <c r="K33" s="31" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L33" s="38"/>
       <c r="M33" s="38"/>
       <c r="N33" s="36" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AMJ33" s="0"/>
     </row>
     <row r="34" s="37" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="30" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C34" s="32" t="n">
         <v>1</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H34" s="31" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J34" s="31" t="s">
         <v>26</v>
       </c>
       <c r="K34" s="31" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L34" s="38"/>
       <c r="M34" s="38"/>
       <c r="N34" s="36" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AMJ34" s="0"/>
     </row>
     <row r="35" s="37" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="30" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C35" s="32" t="n">
         <v>1</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G35" s="31" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H35" s="31" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I35" s="31" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J35" s="31" t="s">
         <v>26</v>
       </c>
       <c r="K35" s="31" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L35" s="40"/>
       <c r="M35" s="40"/>
       <c r="N35" s="36" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AMJ35" s="0"/>
     </row>
     <row r="36" s="37" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C36" s="32" t="n">
         <v>1</v>
@@ -5082,30 +5090,30 @@
         <v>81</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H36" s="31" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J36" s="31" t="s">
         <v>26</v>
       </c>
       <c r="K36" s="31" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L36" s="40"/>
       <c r="M36" s="40"/>
       <c r="N36" s="36" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AMJ36" s="0"/>
     </row>
@@ -5466,7 +5474,7 @@
     </row>
     <row r="58" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="49" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B58" s="47"/>
       <c r="C58" s="47"/>
@@ -5479,21 +5487,21 @@
     </row>
     <row r="59" customFormat="false" ht="16.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="52" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H59" s="50"/>
       <c r="I59" s="51"/>
     </row>
     <row r="60" customFormat="false" ht="16.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="52" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H60" s="50"/>
       <c r="I60" s="51"/>
     </row>
     <row r="61" customFormat="false" ht="16.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H61" s="50"/>
       <c r="I61" s="51"/>
@@ -5536,7 +5544,7 @@
     <hyperlink ref="N22" r:id="rId9" display="http://www.digikey.com/product-detail/en/67996-406HLF/609-3218-ND/1878478"/>
     <hyperlink ref="N23" r:id="rId10" display="http://www.digikey.com/product-detail/en/PREC040SAAN-RC/S1012EC-40-ND/2774814"/>
     <hyperlink ref="N24" r:id="rId11" display="http://www.digikey.com/product-detail/en/960102-6202-AR/3M9513-ND/2071554"/>
-    <hyperlink ref="N25" r:id="rId12" display="http://www.digikey.com/product-detail/en/10118193-0001LF/609-4616-1-ND/2785380"/>
+    <hyperlink ref="N25" r:id="rId12" display="http://www.seeedstudio.com/depot/index.php?main_page=opl_info&amp;opl_id=331"/>
     <hyperlink ref="N26" r:id="rId13" display="http://www.digikey.com/product-detail/en/BC847BDW1T3G/BC847BDW1T3GOSCT-ND/2120552"/>
     <hyperlink ref="N27" r:id="rId14" display="http://www.digikey.com/product-detail/en/RMCF0805FT10K0/RMCF0805FT10K0CT-ND/1942435"/>
     <hyperlink ref="N28" r:id="rId15" display="http://www.digikey.com/product-detail/en/RMCF0805FT150R/RMCF0805FT150RCT-ND/1942337"/>
